--- a/data/2018/2018.national_championships.xlsx
+++ b/data/2018/2018.national_championships.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Session 1 "/>
@@ -1950,18 +1950,18 @@
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="95" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="95" width="24.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="96" width="33.71928571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="97" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="98" width="10.719285714285713" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="99" width="10.719285714285713" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="95" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="100" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="100" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="100" width="10.290714285714287" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="100" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="100" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="100" width="8.719285714285713" customWidth="1" bestFit="1"/>
@@ -3546,7 +3546,7 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="9" t="s">
         <v>58</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="9" t="s">
         <v>101</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="9"/>
       <c r="B35" s="92"/>
       <c r="C35" s="92"/>
@@ -3674,19 +3674,19 @@
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="95" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="95" width="12.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="96" width="33.71928571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="97" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="98" width="10.719285714285713" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="99" width="10.719285714285713" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="95" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="100" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="100" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="100" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="100" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="100" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="100" width="31.14785714285714" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="100" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="100" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="100" width="8.719285714285713" customWidth="1" bestFit="1"/>
@@ -5296,7 +5296,7 @@
     <col min="26" max="26" style="102" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="32.1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75">
       <c r="A1" s="1" t="s">
         <v>186</v>
       </c>
@@ -5326,7 +5326,7 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -5366,7 +5366,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -5406,7 +5406,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
@@ -5466,7 +5466,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="37"/>
       <c r="B5" s="38" t="s">
         <v>187</v>
@@ -5496,7 +5496,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="47">
         <v>1</v>
       </c>
@@ -5556,7 +5556,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="47">
         <v>2</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="47"/>
       <c r="B8" s="48" t="s">
         <v>190</v>
@@ -5646,7 +5646,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="47">
         <v>3</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="47">
         <v>4</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="47"/>
       <c r="B11" s="48" t="s">
         <v>193</v>
@@ -5792,7 +5792,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="47">
         <v>5</v>
       </c>
@@ -5850,7 +5850,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="47">
         <v>6</v>
       </c>
@@ -5910,7 +5910,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="47">
         <v>7</v>
       </c>
@@ -5968,7 +5968,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="47">
         <v>8</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="47">
         <v>9</v>
       </c>
@@ -6084,7 +6084,7 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="47"/>
       <c r="B17" s="57"/>
       <c r="C17" s="49"/>
@@ -6112,7 +6112,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="47"/>
       <c r="B18" s="57"/>
       <c r="C18" s="49"/>
@@ -6140,7 +6140,7 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="47"/>
       <c r="B19" s="57"/>
       <c r="C19" s="49"/>
@@ -6168,7 +6168,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="47"/>
       <c r="B20" s="57"/>
       <c r="C20" s="49"/>
@@ -6196,7 +6196,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="47"/>
       <c r="B21" s="57"/>
       <c r="C21" s="49"/>
@@ -6224,7 +6224,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="47"/>
       <c r="B22" s="57"/>
       <c r="C22" s="49"/>
@@ -6252,7 +6252,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="47"/>
       <c r="B23" s="57"/>
       <c r="C23" s="49"/>
@@ -6280,7 +6280,7 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15.949999999999998">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
       <c r="A24" s="58"/>
       <c r="B24" s="59"/>
       <c r="C24" s="60"/>
@@ -6308,7 +6308,7 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="68" t="s">
         <v>47</v>
       </c>
@@ -6342,7 +6342,7 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="73" t="s">
         <v>50</v>
       </c>
